--- a/Ahmadlo/MaryamAhmadloo-week2.xlsx
+++ b/Ahmadlo/MaryamAhmadloo-week2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C713875D-0C52-482B-B354-EE68E96C6345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4279DCC9-0675-4733-8309-8F19A73D54A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{417F7AA3-7EE5-4CF0-92AA-804FE9397CDE}"/>
+    <workbookView xWindow="3180" yWindow="258" windowWidth="17280" windowHeight="8994" xr2:uid="{B132E77F-25F4-4952-A9D3-0AE13FE37FD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>تاریخ</t>
+  </si>
+  <si>
+    <t>روز</t>
+  </si>
+  <si>
+    <t>توضیحات</t>
+  </si>
+  <si>
+    <t>ساعت</t>
+  </si>
+  <si>
+    <t>مجموع ساعت کار:</t>
+  </si>
+  <si>
+    <t>نام:</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t>سه شنبه</t>
+  </si>
+  <si>
+    <t>چهارشنبه</t>
+  </si>
+  <si>
+    <t>پنجشنبه</t>
+  </si>
+  <si>
+    <t>جمعه</t>
+  </si>
   <si>
     <t>شنبه</t>
   </si>
@@ -41,27 +74,9 @@
     <t>یکشنبه</t>
   </si>
   <si>
-    <t>دوشنبه</t>
-  </si>
-  <si>
-    <t>سه شنبه</t>
-  </si>
-  <si>
-    <t>چهارشنبه</t>
-  </si>
-  <si>
-    <t>پنجشنبه</t>
-  </si>
-  <si>
-    <t>جمعه</t>
-  </si>
-  <si>
     <t>اصلاح کد فرانت + ویدیو آموزشی جاوا اسکریپت</t>
   </si>
   <si>
-    <t>۱ساعت</t>
-  </si>
-  <si>
     <t>شروع پروژه فردی و مطالعه درباره ui ux</t>
   </si>
   <si>
@@ -77,13 +92,7 @@
     <t>تکمیل پروژه  + ویدیو js</t>
   </si>
   <si>
-    <t>2 ساعت</t>
-  </si>
-  <si>
-    <t>1.5 ساعت</t>
-  </si>
-  <si>
-    <t>3 ساعت</t>
+    <t>گزارش کار از تاریخ 06/20 تا تاریخ06/26</t>
   </si>
 </sst>
 </file>
@@ -100,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,13 +135,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -137,6 +193,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3D1043CB-155B-4540-9560-31D87EE3E0DA}" name="Table1" displayName="Table1" ref="A3:D33" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A3:D33" xr:uid="{3D1043CB-155B-4540-9560-31D87EE3E0DA}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9767390E-2AAB-4D1F-BDEB-BCFA6868078C}" name="تاریخ" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D090BB6A-5BF9-4C2A-9383-69E41B4AE648}" name="روز" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{9DFCD81C-286E-470A-BD7F-568AC7468159}" name="توضیحات" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F7101159-67CA-40FC-839A-DCCC1B3E2DBA}" name="ساعت" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,117 +504,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2BA8A1-1825-4C64-A239-9235E788B8A9}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87DA073-7857-452C-801F-7CF0FE78C183}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="48.90234375" customWidth="1"/>
+    <col min="1" max="1" width="15.90234375" customWidth="1"/>
+    <col min="2" max="2" width="14.90234375" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="8">
         <v>6.2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="8">
+        <v>6.21</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="8">
+        <v>6.23</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="8">
+        <v>6.24</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>6.21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="8">
+        <v>6.25</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>6.22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="8">
+        <v>6.26</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>6.23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>6.24</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>6.25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6.26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="1">
+        <f>SUM(Table1[ساعت])</f>
+        <v>0.5625</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>